--- a/colors.xlsx
+++ b/colors.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="12000" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5g overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>五十而知天</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>3 (6 in 4)</t>
+  </si>
+  <si>
+    <t>where exactly?</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,6 +1688,9 @@
       <c r="I64" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="J64" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
